--- a/natmiOut/OldD4/LR-pairs_lrc2p/Col18a1-Itgb1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Col18a1-Itgb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,12 +95,6 @@
   </si>
   <si>
     <t>Itgb1</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.54004205872674</v>
+        <v>21.16991533333333</v>
       </c>
       <c r="H2">
-        <v>7.54004205872674</v>
+        <v>63.50974599999999</v>
       </c>
       <c r="I2">
-        <v>0.166485317531152</v>
+        <v>0.3077700633440185</v>
       </c>
       <c r="J2">
-        <v>0.166485317531152</v>
+        <v>0.3697009773073652</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N2">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O2">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P2">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q2">
-        <v>933.0283891437495</v>
+        <v>2926.086333957442</v>
       </c>
       <c r="R2">
-        <v>933.0283891437495</v>
+        <v>26334.77700561698</v>
       </c>
       <c r="S2">
-        <v>0.03516547231890606</v>
+        <v>0.06922437057850336</v>
       </c>
       <c r="T2">
-        <v>0.03516547231890606</v>
+        <v>0.0915601072069922</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.54004205872674</v>
+        <v>21.16991533333333</v>
       </c>
       <c r="H3">
-        <v>7.54004205872674</v>
+        <v>63.50974599999999</v>
       </c>
       <c r="I3">
-        <v>0.166485317531152</v>
+        <v>0.3077700633440185</v>
       </c>
       <c r="J3">
-        <v>0.166485317531152</v>
+        <v>0.3697009773073652</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N3">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P3">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q3">
-        <v>1044.961007932798</v>
+        <v>3131.333842686726</v>
       </c>
       <c r="R3">
-        <v>1044.961007932798</v>
+        <v>28182.00458418053</v>
       </c>
       <c r="S3">
-        <v>0.03938416861304691</v>
+        <v>0.07408004740515889</v>
       </c>
       <c r="T3">
-        <v>0.03938416861304691</v>
+        <v>0.09798250277513838</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.54004205872674</v>
+        <v>21.16991533333333</v>
       </c>
       <c r="H4">
-        <v>7.54004205872674</v>
+        <v>63.50974599999999</v>
       </c>
       <c r="I4">
-        <v>0.166485317531152</v>
+        <v>0.3077700633440185</v>
       </c>
       <c r="J4">
-        <v>0.166485317531152</v>
+        <v>0.3697009773073652</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N4">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O4">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P4">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q4">
-        <v>537.6041828204915</v>
+        <v>1572.345020531732</v>
       </c>
       <c r="R4">
-        <v>537.6041828204915</v>
+        <v>14151.10518478559</v>
       </c>
       <c r="S4">
-        <v>0.0202620898029175</v>
+        <v>0.03719801193676475</v>
       </c>
       <c r="T4">
-        <v>0.0202620898029175</v>
+        <v>0.04920021565172302</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.54004205872674</v>
+        <v>21.16991533333333</v>
       </c>
       <c r="H5">
-        <v>7.54004205872674</v>
+        <v>63.50974599999999</v>
       </c>
       <c r="I5">
-        <v>0.166485317531152</v>
+        <v>0.3077700633440185</v>
       </c>
       <c r="J5">
-        <v>0.166485317531152</v>
+        <v>0.3697009773073652</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N5">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O5">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P5">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q5">
-        <v>639.5978022106915</v>
+        <v>1796.414524567923</v>
       </c>
       <c r="R5">
-        <v>639.5978022106915</v>
+        <v>16167.73072111131</v>
       </c>
       <c r="S5">
-        <v>0.0241061891262646</v>
+        <v>0.04249897322513674</v>
       </c>
       <c r="T5">
-        <v>0.0241061891262646</v>
+        <v>0.05621156988733923</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.54004205872674</v>
+        <v>21.16991533333333</v>
       </c>
       <c r="H6">
-        <v>7.54004205872674</v>
+        <v>63.50974599999999</v>
       </c>
       <c r="I6">
-        <v>0.166485317531152</v>
+        <v>0.3077700633440185</v>
       </c>
       <c r="J6">
-        <v>0.166485317531152</v>
+        <v>0.3697009773073652</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N6">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O6">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P6">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q6">
-        <v>1262.082648039822</v>
+        <v>3583.137211385581</v>
       </c>
       <c r="R6">
-        <v>1262.082648039822</v>
+        <v>21498.82326831348</v>
       </c>
       <c r="S6">
-        <v>0.04756739767001693</v>
+        <v>0.08476866019845475</v>
       </c>
       <c r="T6">
-        <v>0.04756739767001693</v>
+        <v>0.0747465817861724</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>11.9612231525266</v>
+        <v>12.96368733333333</v>
       </c>
       <c r="H7">
-        <v>11.9612231525266</v>
+        <v>38.891062</v>
       </c>
       <c r="I7">
-        <v>0.264105693191005</v>
+        <v>0.1884672096666258</v>
       </c>
       <c r="J7">
-        <v>0.264105693191005</v>
+        <v>0.2263914522650009</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N7">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O7">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P7">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q7">
-        <v>1480.119166878413</v>
+        <v>1791.829005760653</v>
       </c>
       <c r="R7">
-        <v>1480.119166878413</v>
+        <v>16126.46105184587</v>
       </c>
       <c r="S7">
-        <v>0.05578510814586377</v>
+        <v>0.04239049055682808</v>
       </c>
       <c r="T7">
-        <v>0.05578510814586377</v>
+        <v>0.05606808451278927</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>11.9612231525266</v>
+        <v>12.96368733333333</v>
       </c>
       <c r="H8">
-        <v>11.9612231525266</v>
+        <v>38.891062</v>
       </c>
       <c r="I8">
-        <v>0.264105693191005</v>
+        <v>0.1884672096666258</v>
       </c>
       <c r="J8">
-        <v>0.264105693191005</v>
+        <v>0.2263914522650009</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N8">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P8">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q8">
-        <v>1657.684626189469</v>
+        <v>1917.515126239486</v>
       </c>
       <c r="R8">
-        <v>1657.684626189469</v>
+        <v>17257.63613615538</v>
       </c>
       <c r="S8">
-        <v>0.06247748033608956</v>
+        <v>0.04536393070438312</v>
       </c>
       <c r="T8">
-        <v>0.06247748033608956</v>
+        <v>0.06000092631992385</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>11.9612231525266</v>
+        <v>12.96368733333333</v>
       </c>
       <c r="H9">
-        <v>11.9612231525266</v>
+        <v>38.891062</v>
       </c>
       <c r="I9">
-        <v>0.264105693191005</v>
+        <v>0.1884672096666258</v>
       </c>
       <c r="J9">
-        <v>0.264105693191005</v>
+        <v>0.2263914522650009</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N9">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O9">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P9">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q9">
-        <v>852.8339163579526</v>
+        <v>962.846988537647</v>
       </c>
       <c r="R9">
-        <v>852.8339163579526</v>
+        <v>8665.622896838822</v>
       </c>
       <c r="S9">
-        <v>0.0321429742409363</v>
+        <v>0.02277871160923015</v>
       </c>
       <c r="T9">
-        <v>0.0321429742409363</v>
+        <v>0.03012842528648328</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>11.9612231525266</v>
+        <v>12.96368733333333</v>
       </c>
       <c r="H10">
-        <v>11.9612231525266</v>
+        <v>38.891062</v>
       </c>
       <c r="I10">
-        <v>0.264105693191005</v>
+        <v>0.1884672096666258</v>
       </c>
       <c r="J10">
-        <v>0.264105693191005</v>
+        <v>0.2263914522650009</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N10">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O10">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P10">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q10">
-        <v>1014.632541903824</v>
+        <v>1100.05901539382</v>
       </c>
       <c r="R10">
-        <v>1014.632541903824</v>
+        <v>9900.531138544384</v>
       </c>
       <c r="S10">
-        <v>0.03824110067960973</v>
+        <v>0.02602482778997625</v>
       </c>
       <c r="T10">
-        <v>0.03824110067960973</v>
+        <v>0.03442192399267103</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>11.9612231525266</v>
+        <v>12.96368733333333</v>
       </c>
       <c r="H11">
-        <v>11.9612231525266</v>
+        <v>38.891062</v>
       </c>
       <c r="I11">
-        <v>0.264105693191005</v>
+        <v>0.1884672096666258</v>
       </c>
       <c r="J11">
-        <v>0.264105693191005</v>
+        <v>0.2263914522650009</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>167.384032901926</v>
+        <v>169.2560955</v>
       </c>
       <c r="N11">
-        <v>167.384032901926</v>
+        <v>338.512191</v>
       </c>
       <c r="O11">
-        <v>0.2857152713248502</v>
+        <v>0.275428543235871</v>
       </c>
       <c r="P11">
-        <v>0.2857152713248502</v>
+        <v>0.2021811852664618</v>
       </c>
       <c r="Q11">
-        <v>2002.117769709791</v>
+        <v>2194.183101322807</v>
       </c>
       <c r="R11">
-        <v>2002.117769709791</v>
+        <v>13165.09860793684</v>
       </c>
       <c r="S11">
-        <v>0.07545902978850562</v>
+        <v>0.05190924900620821</v>
       </c>
       <c r="T11">
-        <v>0.07545902978850562</v>
+        <v>0.04577209215313349</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>25.7882664455901</v>
+        <v>0.05547</v>
       </c>
       <c r="H12">
-        <v>25.7882664455901</v>
+        <v>0.16641</v>
       </c>
       <c r="I12">
-        <v>0.5694089892778431</v>
+        <v>0.0008064276660951866</v>
       </c>
       <c r="J12">
-        <v>0.5694089892778431</v>
+        <v>0.0009687007665519344</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>123.743127939701</v>
+        <v>138.2190853333333</v>
       </c>
       <c r="N12">
-        <v>123.743127939701</v>
+        <v>414.657256</v>
       </c>
       <c r="O12">
-        <v>0.2112226641987577</v>
+        <v>0.2249223651785973</v>
       </c>
       <c r="P12">
-        <v>0.2112226641987577</v>
+        <v>0.2476599003709697</v>
       </c>
       <c r="Q12">
-        <v>3191.120754119754</v>
+        <v>7.66701266344</v>
       </c>
       <c r="R12">
-        <v>3191.120754119754</v>
+        <v>69.00311397096</v>
       </c>
       <c r="S12">
-        <v>0.1202720837339879</v>
+        <v>0.0001813836180035855</v>
       </c>
       <c r="T12">
-        <v>0.1202720837339879</v>
+        <v>0.0002399083353335341</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>25.7882664455901</v>
+        <v>0.05547</v>
       </c>
       <c r="H13">
-        <v>25.7882664455901</v>
+        <v>0.16641</v>
       </c>
       <c r="I13">
-        <v>0.5694089892778431</v>
+        <v>0.0008064276660951866</v>
       </c>
       <c r="J13">
-        <v>0.5694089892778431</v>
+        <v>0.0009687007665519344</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>138.588220038292</v>
+        <v>147.91433</v>
       </c>
       <c r="N13">
-        <v>138.588220038292</v>
+        <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2365624140139416</v>
+        <v>0.2406993279341593</v>
       </c>
       <c r="P13">
-        <v>0.2365624140139416</v>
+        <v>0.2650317656414439</v>
       </c>
       <c r="Q13">
-        <v>3573.949944567543</v>
+        <v>8.204807885099999</v>
       </c>
       <c r="R13">
-        <v>3573.949944567543</v>
+        <v>73.84327096589999</v>
       </c>
       <c r="S13">
-        <v>0.1347007650648052</v>
+        <v>0.0001941065972566241</v>
       </c>
       <c r="T13">
-        <v>0.1347007650648052</v>
+        <v>0.0002567364745374793</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>25.7882664455901</v>
+        <v>0.05547</v>
       </c>
       <c r="H14">
-        <v>25.7882664455901</v>
+        <v>0.16641</v>
       </c>
       <c r="I14">
-        <v>0.5694089892778431</v>
+        <v>0.0008064276660951866</v>
       </c>
       <c r="J14">
-        <v>0.5694089892778431</v>
+        <v>0.0009687007665519344</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>71.29989178220509</v>
+        <v>74.27261733333333</v>
       </c>
       <c r="N14">
-        <v>71.29989178220509</v>
+        <v>222.817852</v>
       </c>
       <c r="O14">
-        <v>0.1217049653590392</v>
+        <v>0.1208629960061633</v>
       </c>
       <c r="P14">
-        <v>0.1217049653590392</v>
+        <v>0.1330811078998542</v>
       </c>
       <c r="Q14">
-        <v>1838.700606821245</v>
+        <v>4.11990208348</v>
       </c>
       <c r="R14">
-        <v>1838.700606821245</v>
+        <v>37.07911875132</v>
       </c>
       <c r="S14">
-        <v>0.06929990131518543</v>
+        <v>9.746726378652216E-05</v>
       </c>
       <c r="T14">
-        <v>0.06929990131518543</v>
+        <v>0.0001289157712361694</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>26</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>25.7882664455901</v>
+        <v>0.05547</v>
       </c>
       <c r="H15">
-        <v>25.7882664455901</v>
+        <v>0.16641</v>
       </c>
       <c r="I15">
-        <v>0.5694089892778431</v>
+        <v>0.0008064276660951866</v>
       </c>
       <c r="J15">
-        <v>0.5694089892778431</v>
+        <v>0.0009687007665519344</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>84.8268215520668</v>
+        <v>84.85695366666668</v>
       </c>
       <c r="N15">
-        <v>84.8268215520668</v>
+        <v>254.570861</v>
       </c>
       <c r="O15">
-        <v>0.1447946851034113</v>
+        <v>0.138086767645209</v>
       </c>
       <c r="P15">
-        <v>0.1447946851034113</v>
+        <v>0.1520460408212704</v>
       </c>
       <c r="Q15">
-        <v>2187.536675917223</v>
+        <v>4.707015219890001</v>
       </c>
       <c r="R15">
-        <v>2187.536675917223</v>
+        <v>42.36313697901001</v>
       </c>
       <c r="S15">
-        <v>0.08244739529753702</v>
+        <v>0.0001113569897507542</v>
       </c>
       <c r="T15">
-        <v>0.08244739529753702</v>
+        <v>0.0001472871162947514</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.05547</v>
+      </c>
+      <c r="H16">
+        <v>0.16641</v>
+      </c>
+      <c r="I16">
+        <v>0.0008064276660951866</v>
+      </c>
+      <c r="J16">
+        <v>0.0009687007665519344</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>169.2560955</v>
+      </c>
+      <c r="N16">
+        <v>338.512191</v>
+      </c>
+      <c r="O16">
+        <v>0.275428543235871</v>
+      </c>
+      <c r="P16">
+        <v>0.2021811852664618</v>
+      </c>
+      <c r="Q16">
+        <v>9.388635617385001</v>
+      </c>
+      <c r="R16">
+        <v>56.33181370431001</v>
+      </c>
+      <c r="S16">
+        <v>0.0002221131972977007</v>
+      </c>
+      <c r="T16">
+        <v>0.0001958530691500002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.02803733333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.08411200000000001</v>
+      </c>
+      <c r="I17">
+        <v>0.0004076091812427038</v>
+      </c>
+      <c r="J17">
+        <v>0.0004896301837402578</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>138.2190853333333</v>
+      </c>
+      <c r="N17">
+        <v>414.657256</v>
+      </c>
+      <c r="O17">
+        <v>0.2249223651785973</v>
+      </c>
+      <c r="P17">
+        <v>0.2476599003709697</v>
+      </c>
+      <c r="Q17">
+        <v>3.875294568519112</v>
+      </c>
+      <c r="R17">
+        <v>34.87765111667201</v>
+      </c>
+      <c r="S17">
+        <v>9.16804211136205E-05</v>
+      </c>
+      <c r="T17">
+        <v>0.0001212617625237318</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.02803733333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.08411200000000001</v>
+      </c>
+      <c r="I18">
+        <v>0.0004076091812427038</v>
+      </c>
+      <c r="J18">
+        <v>0.0004896301837402578</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>147.91433</v>
+      </c>
+      <c r="N18">
+        <v>443.74299</v>
+      </c>
+      <c r="O18">
+        <v>0.2406993279341593</v>
+      </c>
+      <c r="P18">
+        <v>0.2650317656414439</v>
+      </c>
+      <c r="Q18">
+        <v>4.147123374986666</v>
+      </c>
+      <c r="R18">
+        <v>37.32411037488</v>
+      </c>
+      <c r="S18">
+        <v>9.811125598491174E-05</v>
+      </c>
+      <c r="T18">
+        <v>0.0001297675521080251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.02803733333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.08411200000000001</v>
+      </c>
+      <c r="I19">
+        <v>0.0004076091812427038</v>
+      </c>
+      <c r="J19">
+        <v>0.0004896301837402578</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>74.27261733333333</v>
+      </c>
+      <c r="N19">
+        <v>222.817852</v>
+      </c>
+      <c r="O19">
+        <v>0.1208629960061633</v>
+      </c>
+      <c r="P19">
+        <v>0.1330811078998542</v>
+      </c>
+      <c r="Q19">
+        <v>2.082406129713778</v>
+      </c>
+      <c r="R19">
+        <v>18.741655167424</v>
+      </c>
+      <c r="S19">
+        <v>4.926486684461242E-05</v>
+      </c>
+      <c r="T19">
+        <v>6.516052731336269E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.02803733333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.08411200000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.0004076091812427038</v>
+      </c>
+      <c r="J20">
+        <v>0.0004896301837402578</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>84.85695366666668</v>
+      </c>
+      <c r="N20">
+        <v>254.570861</v>
+      </c>
+      <c r="O20">
+        <v>0.138086767645209</v>
+      </c>
+      <c r="P20">
+        <v>0.1520460408212704</v>
+      </c>
+      <c r="Q20">
+        <v>2.379162695603556</v>
+      </c>
+      <c r="R20">
+        <v>21.412464260432</v>
+      </c>
+      <c r="S20">
+        <v>5.628543430031513E-05</v>
+      </c>
+      <c r="T20">
+        <v>7.444633090429738E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.02803733333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.08411200000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.0004076091812427038</v>
+      </c>
+      <c r="J21">
+        <v>0.0004896301837402578</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>169.2560955</v>
+      </c>
+      <c r="N21">
+        <v>338.512191</v>
+      </c>
+      <c r="O21">
+        <v>0.275428543235871</v>
+      </c>
+      <c r="P21">
+        <v>0.2021811852664618</v>
+      </c>
+      <c r="Q21">
+        <v>4.745489568232</v>
+      </c>
+      <c r="R21">
+        <v>28.472937409392</v>
+      </c>
+      <c r="S21">
+        <v>0.000112267202999244</v>
+      </c>
+      <c r="T21">
+        <v>9.89940108908408E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>34.5677325</v>
+      </c>
+      <c r="H22">
+        <v>69.135465</v>
+      </c>
+      <c r="I22">
+        <v>0.5025486901420179</v>
+      </c>
+      <c r="J22">
+        <v>0.4024492394773417</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>138.2190853333333</v>
+      </c>
+      <c r="N22">
+        <v>414.657256</v>
+      </c>
+      <c r="O22">
+        <v>0.2249223651785973</v>
+      </c>
+      <c r="P22">
+        <v>0.2476599003709697</v>
+      </c>
+      <c r="Q22">
+        <v>4777.92036819734</v>
+      </c>
+      <c r="R22">
+        <v>28667.52220918404</v>
+      </c>
+      <c r="S22">
+        <v>0.1130344400041487</v>
+      </c>
+      <c r="T22">
+        <v>0.09967053855333097</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>34.5677325</v>
+      </c>
+      <c r="H23">
+        <v>69.135465</v>
+      </c>
+      <c r="I23">
+        <v>0.5025486901420179</v>
+      </c>
+      <c r="J23">
+        <v>0.4024492394773417</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>147.91433</v>
+      </c>
+      <c r="N23">
+        <v>443.74299</v>
+      </c>
+      <c r="O23">
+        <v>0.2406993279341593</v>
+      </c>
+      <c r="P23">
+        <v>0.2650317656414439</v>
+      </c>
+      <c r="Q23">
+        <v>5113.062992356724</v>
+      </c>
+      <c r="R23">
+        <v>30678.37795414035</v>
+      </c>
+      <c r="S23">
+        <v>0.1209631319713758</v>
+      </c>
+      <c r="T23">
+        <v>0.1066618325197361</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>25.7882664455901</v>
-      </c>
-      <c r="H16">
-        <v>25.7882664455901</v>
-      </c>
-      <c r="I16">
-        <v>0.5694089892778431</v>
-      </c>
-      <c r="J16">
-        <v>0.5694089892778431</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>167.384032901926</v>
-      </c>
-      <c r="N16">
-        <v>167.384032901926</v>
-      </c>
-      <c r="O16">
-        <v>0.2857152713248502</v>
-      </c>
-      <c r="P16">
-        <v>0.2857152713248502</v>
-      </c>
-      <c r="Q16">
-        <v>4316.544039212287</v>
-      </c>
-      <c r="R16">
-        <v>4316.544039212287</v>
-      </c>
-      <c r="S16">
-        <v>0.1626888438663276</v>
-      </c>
-      <c r="T16">
-        <v>0.1626888438663276</v>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>34.5677325</v>
+      </c>
+      <c r="H24">
+        <v>69.135465</v>
+      </c>
+      <c r="I24">
+        <v>0.5025486901420179</v>
+      </c>
+      <c r="J24">
+        <v>0.4024492394773417</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>74.27261733333333</v>
+      </c>
+      <c r="N24">
+        <v>222.817852</v>
+      </c>
+      <c r="O24">
+        <v>0.1208629960061633</v>
+      </c>
+      <c r="P24">
+        <v>0.1330811078998542</v>
+      </c>
+      <c r="Q24">
+        <v>2567.43596805353</v>
+      </c>
+      <c r="R24">
+        <v>15404.61580832118</v>
+      </c>
+      <c r="S24">
+        <v>0.06073954032953733</v>
+      </c>
+      <c r="T24">
+        <v>0.05355839066309837</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>34.5677325</v>
+      </c>
+      <c r="H25">
+        <v>69.135465</v>
+      </c>
+      <c r="I25">
+        <v>0.5025486901420179</v>
+      </c>
+      <c r="J25">
+        <v>0.4024492394773417</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>84.85695366666668</v>
+      </c>
+      <c r="N25">
+        <v>254.570861</v>
+      </c>
+      <c r="O25">
+        <v>0.138086767645209</v>
+      </c>
+      <c r="P25">
+        <v>0.1520460408212704</v>
+      </c>
+      <c r="Q25">
+        <v>2933.312475114228</v>
+      </c>
+      <c r="R25">
+        <v>17599.87485068537</v>
+      </c>
+      <c r="S25">
+        <v>0.06939532420604497</v>
+      </c>
+      <c r="T25">
+        <v>0.06119081349406114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>34.5677325</v>
+      </c>
+      <c r="H26">
+        <v>69.135465</v>
+      </c>
+      <c r="I26">
+        <v>0.5025486901420179</v>
+      </c>
+      <c r="J26">
+        <v>0.4024492394773417</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>169.2560955</v>
+      </c>
+      <c r="N26">
+        <v>338.512191</v>
+      </c>
+      <c r="O26">
+        <v>0.275428543235871</v>
+      </c>
+      <c r="P26">
+        <v>0.2021811852664618</v>
+      </c>
+      <c r="Q26">
+        <v>5850.799433238454</v>
+      </c>
+      <c r="R26">
+        <v>23403.19773295382</v>
+      </c>
+      <c r="S26">
+        <v>0.1384162536309111</v>
+      </c>
+      <c r="T26">
+        <v>0.08136766424711506</v>
       </c>
     </row>
   </sheetData>
